--- a/biology/Biologie cellulaire et moléculaire/Invitrogen/Invitrogen.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Invitrogen/Invitrogen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Invitrogen est une société spécialisée en produit pour la biologie moléculaire. La société est basée à Carlsbad (Californie). En novembre 2008, Invitrogen et Applied Biosystems fusionnent au sein d'une nouvelle entreprise, Life Technologies[2]. Cette dernière a été rachetée par Thermo Fisher Scientific en 2013.
+Invitrogen est une société spécialisée en produit pour la biologie moléculaire. La société est basée à Carlsbad (Californie). En novembre 2008, Invitrogen et Applied Biosystems fusionnent au sein d'une nouvelle entreprise, Life Technologies. Cette dernière a été rachetée par Thermo Fisher Scientific en 2013.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyle Turner et Joe Fernandez fondent Invitrogen en 1987, transformé en compagnie en 1989. Les premiers succès commerciaux sont les kits de biologie moléculaire « The Librarian » et « FastTrack Kit », respectivement destiné à la création de banque d'ADN complémentaire et à l'isolation d'ARN messager.
 </t>
@@ -543,7 +557,9 @@
           <t>Fusion et acquisitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La compagnie Invitrogen s'est nettement développée lors de la fusion avec Life Technologies/GIBCO en 2000. Par la suite elle diversifie sa gamme par le rachat de différentes sociétés telles que Molecular Probes (fluorochromes, Informax (bio-informatique), BioSource ou encore Zymed (Anticorps).
 </t>
